--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC18_Verify_ShippingPage.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC18_Verify_ShippingPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE5278-A560-44ED-A318-613A32892E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B440F5-E9EC-4CE4-9D64-93A37D67F212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>TestCase</t>
   </si>
@@ -193,18 +193,12 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>SCROLL_DOWN</t>
-  </si>
-  <si>
     <t>SCROLL_UP</t>
   </si>
   <si>
     <t>CartImage</t>
   </si>
   <si>
-    <t>ViewFullCart</t>
-  </si>
-  <si>
     <t>CartOrderTotal</t>
   </si>
   <si>
@@ -239,6 +233,18 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -688,7 +694,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -708,7 +714,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -730,7 +736,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -743,7 +749,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
@@ -758,7 +764,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>36</v>
@@ -773,7 +779,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>39</v>
@@ -788,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -801,7 +807,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -814,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>47</v>
@@ -829,7 +835,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -845,7 +851,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
@@ -860,7 +866,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -873,7 +879,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>52</v>
@@ -882,7 +888,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -894,25 +900,27 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
@@ -920,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -935,42 +943,42 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
@@ -978,65 +986,65 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1045,28 +1053,13 @@
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1078,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1103,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1300,7 +1293,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1308,7 +1301,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1316,7 +1309,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1324,7 +1317,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1332,7 +1325,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1340,15 +1333,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1356,10 +1349,26 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1369,21 +1378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1580,24 +1574,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1614,4 +1606,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>